--- a/act1.xlsx
+++ b/act1.xlsx
@@ -1219,8 +1219,10 @@
       </c>
       <c r="B25" s="36" t="n"/>
       <c r="C25" s="37" t="n"/>
-      <c r="D25" s="38" t="n">
-        <v>45617</v>
+      <c r="D25" s="38" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
       </c>
       <c r="E25" s="36" t="n"/>
       <c r="F25" s="36" t="n"/>
